--- a/tabela_festival_2025.xlsx
+++ b/tabela_festival_2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\edalgom\Python_Projects\CADASTRO_JOGADORES\SCCP_SOCIETY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\edalgom\Python_Projects\TABELA_JOGOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFECE8E-C006-4AAB-BD31-1387ABFD6650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95098FE-1146-42AB-995C-D306CD0DB853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E3210F95-9155-449F-96B1-E69ACA6867CF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="11">
   <si>
     <t>Time1</t>
   </si>
@@ -56,43 +56,19 @@
     <t>Goleiro_Time2</t>
   </si>
   <si>
-    <t>Paulista 77</t>
+    <t>Cris</t>
   </si>
   <si>
-    <t>Brasileiro 98</t>
+    <t>Jhony</t>
   </si>
   <si>
-    <t>Copa do Brasil 2002</t>
+    <t>Julio</t>
   </si>
   <si>
-    <t>Mundial 2012</t>
+    <t>Marcel</t>
   </si>
   <si>
-    <t>Brasileiro 90</t>
-  </si>
-  <si>
-    <t>Libertadores 2012</t>
-  </si>
-  <si>
-    <t>Mundial 2000</t>
-  </si>
-  <si>
-    <t>Brasileiro 2017</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>G4</t>
+    <t>Melão</t>
   </si>
 </sst>
 </file>
@@ -616,7 +592,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -645,563 +621,451 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="6">
+        <v>1910</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="10">
+        <v>1914</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>5</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="F2" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1977</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="12">
+        <v>1982</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1990</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="11">
+        <v>1995</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="F4" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>2000</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="13">
+        <v>2012</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>4</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>1910</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="7">
+        <v>1977</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="F6" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>1914</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="12">
+        <v>1982</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="F7" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>1990</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>1995</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="13">
+        <v>2012</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="F9" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>1910</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="12">
+        <v>1982</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>1914</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="7">
+        <v>1977</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="F11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>1990</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="13">
+        <v>2012</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>1995</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="F13" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>1910</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="8">
+        <v>1990</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>1914</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="11">
+        <v>1995</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>1977</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" s="8" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>1982</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="13">
+        <v>2012</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>1910</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="11">
+        <v>1995</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>1914</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="8">
+        <v>1990</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="F19" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>1977</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="13">
+        <v>2012</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>1982</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="F21" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>1910</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>1914</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="13">
+        <v>2012</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    </row>
+    <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>1977</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="8">
+        <v>1990</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+    </row>
+    <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>1982</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="11">
+        <v>1995</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>1910</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="13">
+        <v>2012</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="2">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="8" t="s">
+    </row>
+    <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>1914</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9" t="s">
+    </row>
+    <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>1977</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="11">
+        <v>1995</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+    </row>
+    <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>1982</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="8">
+        <v>1990</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2">
-        <v>2</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
-        <v>3</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F29" s="17" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
